--- a/data/trans_dic/P21D_5_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Clase-trans_dic.xlsx
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="10">
@@ -690,11 +690,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="13">
@@ -712,10 +712,10 @@
         <v>0.003533072986525235</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.005100138212378385</v>
+        <v>0.005100138212378386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.004208321672663517</v>
+        <v>0.004208321672663516</v>
       </c>
     </row>
     <row r="14">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001520945335600427</v>
+        <v>0.001530169706310763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001485704497257027</v>
+        <v>0.001401416794043383</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01263799227326163</v>
+        <v>0.01509598907859764</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01333338933087178</v>
+        <v>0.01476104724717833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009935000901196873</v>
+        <v>0.00983913499599443</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.008774382251096982</v>
+        <v>0.008774382251096981</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.005204887535935131</v>
@@ -782,10 +782,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.003116304991593002</v>
+        <v>0.002908374267781252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001647173218008303</v>
+        <v>0.001561623617251769</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02211201764911468</v>
+        <v>0.02024069720891047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01160291090257481</v>
+        <v>0.01251446810983147</v>
       </c>
     </row>
     <row r="19">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.001724493381168607</v>
+        <v>0.001724493381168606</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.00129536890950027</v>
@@ -848,10 +848,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01068775253963666</v>
+        <v>0.01038857438807988</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.006764392019181789</v>
+        <v>0.006228201468366557</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         <v>0.003634719854696317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.002955019741735498</v>
+        <v>0.002955019741735499</v>
       </c>
     </row>
     <row r="23">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.000444785266044534</v>
+        <v>0.0007461039430351388</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001687346735715869</v>
+        <v>0.001812139541953084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001641151502137697</v>
+        <v>0.001771713571561034</v>
       </c>
     </row>
     <row r="24">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.005444634998277901</v>
+        <v>0.005895237720080939</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.006803605735686022</v>
+        <v>0.006703758478058012</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.004857991469989107</v>
+        <v>0.005533617631943621</v>
       </c>
     </row>
     <row r="25">
@@ -1125,11 +1125,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="12">
@@ -1193,11 +1193,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="16">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1333</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="19">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6454</v>
+        <v>7709</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5156</v>
+        <v>5708</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8915</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="20">
@@ -1319,10 +1319,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1209</v>
+        <v>1128</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1077</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="23">
@@ -1334,10 +1334,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>8577</v>
+        <v>7851</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7587</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="24">
@@ -1402,10 +1402,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>3789</v>
+        <v>3683</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3192</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="28">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>678</v>
+        <v>1137</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2779</v>
+        <v>2985</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5205</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="31">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8299</v>
+        <v>8986</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11206</v>
+        <v>11042</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15407</v>
+        <v>17549</v>
       </c>
     </row>
     <row r="32">
